--- a/atm.xlsx
+++ b/atm.xlsx
@@ -725,7 +725,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>4444</v>
+        <v>4440</v>
       </c>
       <c r="B16">
         <v>6734527</v>
